--- a/matlab/zernikeXY.xlsx
+++ b/matlab/zernikeXY.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/shanti/Documents/proj/raytrace/opensource/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0EC50A21-D1DE-274B-9554-43BFA9E1DCE2}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B0C3513B-6612-7649-85AF-D90230A1D771}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="2780" yWindow="1560" windowWidth="28040" windowHeight="17440" xr2:uid="{73A00B0B-EF7C-F842-A2AF-50495645CD94}"/>
   </bookViews>
@@ -765,7 +765,7 @@
     <t>; z(x,y)=</t>
   </si>
   <si>
-    <t>setup(j);dzdx=diff(z,x); dzdy=diff(z,y); disp(sprintf('dz=%s;\ndx=%s;\ndy=%s;\n',z(x,y),dzdx(x,y),dzdy(x,y)));</t>
+    <t>setup(j);dzdx=diff(z,x); dzdy=diff(z,y); disp(strrep(strrep(sprintf('z = z + c(%d)*(%s);\ndx=dx+c(%d)*(%s);\ndy=dy+c(%d)*(%s);',j,z(x,y),j,dzdx(x,y),j,dzdy(x,y)),'^',''),'*','.*'));</t>
   </si>
 </sst>
 </file>
@@ -807,12 +807,15 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1129,8 +1132,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BB445280-8486-0A4D-8B3C-BB7396118BAF}">
   <dimension ref="A1:K56"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="I13" sqref="I13"/>
+    <sheetView tabSelected="1" topLeftCell="B37" workbookViewId="0">
+      <selection activeCell="H43" sqref="H43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1185,7 +1188,7 @@
       <c r="H2" s="1" t="s">
         <v>188</v>
       </c>
-      <c r="I2" s="1" t="s">
+      <c r="I2" s="3" t="s">
         <v>244</v>
       </c>
       <c r="J2">
@@ -1220,7 +1223,7 @@
       <c r="H3" t="s">
         <v>189</v>
       </c>
-      <c r="I3" s="1" t="s">
+      <c r="I3" s="3" t="s">
         <v>244</v>
       </c>
       <c r="J3">
@@ -1255,7 +1258,7 @@
       <c r="H4" t="s">
         <v>190</v>
       </c>
-      <c r="I4" s="1" t="s">
+      <c r="I4" s="3" t="s">
         <v>244</v>
       </c>
       <c r="J4">
@@ -1290,7 +1293,7 @@
       <c r="H5" t="s">
         <v>191</v>
       </c>
-      <c r="I5" s="1" t="s">
+      <c r="I5" s="3" t="s">
         <v>244</v>
       </c>
       <c r="J5" t="s">
@@ -1325,7 +1328,7 @@
       <c r="H6" t="s">
         <v>192</v>
       </c>
-      <c r="I6" s="1" t="s">
+      <c r="I6" s="3" t="s">
         <v>244</v>
       </c>
       <c r="J6" t="s">
@@ -1360,7 +1363,7 @@
       <c r="H7" t="s">
         <v>193</v>
       </c>
-      <c r="I7" s="1" t="s">
+      <c r="I7" s="3" t="s">
         <v>244</v>
       </c>
     </row>
@@ -1389,7 +1392,7 @@
       <c r="H8" t="s">
         <v>194</v>
       </c>
-      <c r="I8" s="1" t="s">
+      <c r="I8" s="3" t="s">
         <v>244</v>
       </c>
     </row>
@@ -1418,7 +1421,7 @@
       <c r="H9" t="s">
         <v>195</v>
       </c>
-      <c r="I9" s="1" t="s">
+      <c r="I9" s="3" t="s">
         <v>244</v>
       </c>
     </row>
@@ -1447,7 +1450,7 @@
       <c r="H10" t="s">
         <v>196</v>
       </c>
-      <c r="I10" s="1" t="s">
+      <c r="I10" s="3" t="s">
         <v>244</v>
       </c>
     </row>
@@ -1476,7 +1479,7 @@
       <c r="H11" t="s">
         <v>197</v>
       </c>
-      <c r="I11" s="1" t="s">
+      <c r="I11" s="3" t="s">
         <v>244</v>
       </c>
     </row>
@@ -1505,7 +1508,7 @@
       <c r="H12" t="s">
         <v>198</v>
       </c>
-      <c r="I12" s="1" t="s">
+      <c r="I12" s="3" t="s">
         <v>244</v>
       </c>
     </row>
@@ -1534,7 +1537,7 @@
       <c r="H13" t="s">
         <v>199</v>
       </c>
-      <c r="I13" s="1" t="s">
+      <c r="I13" s="3" t="s">
         <v>244</v>
       </c>
     </row>
@@ -1563,7 +1566,7 @@
       <c r="H14" t="s">
         <v>200</v>
       </c>
-      <c r="I14" s="1" t="s">
+      <c r="I14" s="3" t="s">
         <v>244</v>
       </c>
     </row>
@@ -1592,7 +1595,7 @@
       <c r="H15" t="s">
         <v>201</v>
       </c>
-      <c r="I15" s="1" t="s">
+      <c r="I15" s="3" t="s">
         <v>244</v>
       </c>
     </row>
@@ -1621,7 +1624,7 @@
       <c r="H16" t="s">
         <v>202</v>
       </c>
-      <c r="I16" s="1" t="s">
+      <c r="I16" s="3" t="s">
         <v>244</v>
       </c>
     </row>
@@ -1650,7 +1653,7 @@
       <c r="H17" t="s">
         <v>203</v>
       </c>
-      <c r="I17" s="1" t="s">
+      <c r="I17" s="3" t="s">
         <v>244</v>
       </c>
     </row>
@@ -1679,7 +1682,7 @@
       <c r="H18" t="s">
         <v>204</v>
       </c>
-      <c r="I18" s="1" t="s">
+      <c r="I18" s="3" t="s">
         <v>244</v>
       </c>
     </row>
@@ -1708,7 +1711,7 @@
       <c r="H19" t="s">
         <v>205</v>
       </c>
-      <c r="I19" s="1" t="s">
+      <c r="I19" s="3" t="s">
         <v>244</v>
       </c>
     </row>
@@ -1737,7 +1740,7 @@
       <c r="H20" t="s">
         <v>206</v>
       </c>
-      <c r="I20" s="1" t="s">
+      <c r="I20" s="3" t="s">
         <v>244</v>
       </c>
     </row>
@@ -1766,7 +1769,7 @@
       <c r="H21" t="s">
         <v>207</v>
       </c>
-      <c r="I21" s="1" t="s">
+      <c r="I21" s="3" t="s">
         <v>244</v>
       </c>
     </row>
@@ -1795,7 +1798,7 @@
       <c r="H22" t="s">
         <v>208</v>
       </c>
-      <c r="I22" s="1" t="s">
+      <c r="I22" s="3" t="s">
         <v>244</v>
       </c>
     </row>
@@ -1824,7 +1827,7 @@
       <c r="H23" t="s">
         <v>209</v>
       </c>
-      <c r="I23" s="1" t="s">
+      <c r="I23" s="3" t="s">
         <v>244</v>
       </c>
     </row>
@@ -1853,7 +1856,7 @@
       <c r="H24" t="s">
         <v>210</v>
       </c>
-      <c r="I24" s="1" t="s">
+      <c r="I24" s="3" t="s">
         <v>244</v>
       </c>
     </row>
@@ -1882,7 +1885,7 @@
       <c r="H25" t="s">
         <v>211</v>
       </c>
-      <c r="I25" s="1" t="s">
+      <c r="I25" s="3" t="s">
         <v>244</v>
       </c>
     </row>
@@ -1911,7 +1914,7 @@
       <c r="H26" t="s">
         <v>212</v>
       </c>
-      <c r="I26" s="1" t="s">
+      <c r="I26" s="3" t="s">
         <v>244</v>
       </c>
     </row>
@@ -1940,7 +1943,7 @@
       <c r="H27" t="s">
         <v>213</v>
       </c>
-      <c r="I27" s="1" t="s">
+      <c r="I27" s="3" t="s">
         <v>244</v>
       </c>
     </row>
@@ -1969,7 +1972,7 @@
       <c r="H28" t="s">
         <v>214</v>
       </c>
-      <c r="I28" s="1" t="s">
+      <c r="I28" s="3" t="s">
         <v>244</v>
       </c>
     </row>
@@ -1998,7 +2001,7 @@
       <c r="H29" t="s">
         <v>215</v>
       </c>
-      <c r="I29" s="1" t="s">
+      <c r="I29" s="3" t="s">
         <v>244</v>
       </c>
     </row>
@@ -2027,7 +2030,7 @@
       <c r="H30" t="s">
         <v>216</v>
       </c>
-      <c r="I30" s="1" t="s">
+      <c r="I30" s="3" t="s">
         <v>244</v>
       </c>
     </row>
@@ -2056,7 +2059,7 @@
       <c r="H31" t="s">
         <v>217</v>
       </c>
-      <c r="I31" s="1" t="s">
+      <c r="I31" s="3" t="s">
         <v>244</v>
       </c>
     </row>
@@ -2085,7 +2088,7 @@
       <c r="H32" t="s">
         <v>218</v>
       </c>
-      <c r="I32" s="1" t="s">
+      <c r="I32" s="3" t="s">
         <v>244</v>
       </c>
     </row>
@@ -2114,7 +2117,7 @@
       <c r="H33" t="s">
         <v>219</v>
       </c>
-      <c r="I33" s="1" t="s">
+      <c r="I33" s="3" t="s">
         <v>244</v>
       </c>
     </row>
@@ -2143,7 +2146,7 @@
       <c r="H34" t="s">
         <v>220</v>
       </c>
-      <c r="I34" s="1" t="s">
+      <c r="I34" s="3" t="s">
         <v>244</v>
       </c>
     </row>
@@ -2172,7 +2175,7 @@
       <c r="H35" t="s">
         <v>221</v>
       </c>
-      <c r="I35" s="1" t="s">
+      <c r="I35" s="3" t="s">
         <v>244</v>
       </c>
     </row>
@@ -2201,7 +2204,7 @@
       <c r="H36" t="s">
         <v>222</v>
       </c>
-      <c r="I36" s="1" t="s">
+      <c r="I36" s="3" t="s">
         <v>244</v>
       </c>
     </row>
@@ -2230,7 +2233,7 @@
       <c r="H37" t="s">
         <v>223</v>
       </c>
-      <c r="I37" s="1" t="s">
+      <c r="I37" s="3" t="s">
         <v>244</v>
       </c>
     </row>
@@ -2259,7 +2262,7 @@
       <c r="H38" t="s">
         <v>224</v>
       </c>
-      <c r="I38" s="1" t="s">
+      <c r="I38" s="3" t="s">
         <v>244</v>
       </c>
     </row>
@@ -2288,7 +2291,7 @@
       <c r="H39" t="s">
         <v>225</v>
       </c>
-      <c r="I39" s="1" t="s">
+      <c r="I39" s="3" t="s">
         <v>244</v>
       </c>
     </row>
@@ -2317,7 +2320,7 @@
       <c r="H40" t="s">
         <v>226</v>
       </c>
-      <c r="I40" s="1" t="s">
+      <c r="I40" s="3" t="s">
         <v>244</v>
       </c>
     </row>
@@ -2346,7 +2349,7 @@
       <c r="H41" t="s">
         <v>227</v>
       </c>
-      <c r="I41" s="1" t="s">
+      <c r="I41" s="3" t="s">
         <v>244</v>
       </c>
     </row>
@@ -2375,7 +2378,7 @@
       <c r="H42" t="s">
         <v>228</v>
       </c>
-      <c r="I42" s="1" t="s">
+      <c r="I42" s="3" t="s">
         <v>244</v>
       </c>
     </row>
@@ -2404,7 +2407,7 @@
       <c r="H43" t="s">
         <v>229</v>
       </c>
-      <c r="I43" s="1" t="s">
+      <c r="I43" s="3" t="s">
         <v>244</v>
       </c>
     </row>
@@ -2433,7 +2436,7 @@
       <c r="H44" t="s">
         <v>230</v>
       </c>
-      <c r="I44" s="1" t="s">
+      <c r="I44" s="3" t="s">
         <v>244</v>
       </c>
     </row>
@@ -2462,7 +2465,7 @@
       <c r="H45" t="s">
         <v>231</v>
       </c>
-      <c r="I45" s="1" t="s">
+      <c r="I45" s="3" t="s">
         <v>244</v>
       </c>
     </row>
@@ -2491,7 +2494,7 @@
       <c r="H46" t="s">
         <v>232</v>
       </c>
-      <c r="I46" s="1" t="s">
+      <c r="I46" s="3" t="s">
         <v>244</v>
       </c>
     </row>
@@ -2520,7 +2523,7 @@
       <c r="H47" t="s">
         <v>233</v>
       </c>
-      <c r="I47" s="1" t="s">
+      <c r="I47" s="3" t="s">
         <v>244</v>
       </c>
     </row>
@@ -2549,7 +2552,7 @@
       <c r="H48" t="s">
         <v>234</v>
       </c>
-      <c r="I48" s="1" t="s">
+      <c r="I48" s="3" t="s">
         <v>244</v>
       </c>
     </row>
@@ -2578,7 +2581,7 @@
       <c r="H49" t="s">
         <v>235</v>
       </c>
-      <c r="I49" s="1" t="s">
+      <c r="I49" s="3" t="s">
         <v>244</v>
       </c>
     </row>
@@ -2607,7 +2610,7 @@
       <c r="H50" t="s">
         <v>236</v>
       </c>
-      <c r="I50" s="1" t="s">
+      <c r="I50" s="3" t="s">
         <v>244</v>
       </c>
     </row>
@@ -2636,7 +2639,7 @@
       <c r="H51" t="s">
         <v>237</v>
       </c>
-      <c r="I51" s="1" t="s">
+      <c r="I51" s="3" t="s">
         <v>244</v>
       </c>
     </row>
@@ -2665,7 +2668,7 @@
       <c r="H52" t="s">
         <v>238</v>
       </c>
-      <c r="I52" s="1" t="s">
+      <c r="I52" s="3" t="s">
         <v>244</v>
       </c>
     </row>
@@ -2694,7 +2697,7 @@
       <c r="H53" t="s">
         <v>239</v>
       </c>
-      <c r="I53" s="1" t="s">
+      <c r="I53" s="3" t="s">
         <v>244</v>
       </c>
     </row>
@@ -2723,7 +2726,7 @@
       <c r="H54" t="s">
         <v>240</v>
       </c>
-      <c r="I54" s="1" t="s">
+      <c r="I54" s="3" t="s">
         <v>244</v>
       </c>
     </row>
@@ -2752,7 +2755,7 @@
       <c r="H55" t="s">
         <v>241</v>
       </c>
-      <c r="I55" s="1" t="s">
+      <c r="I55" s="3" t="s">
         <v>244</v>
       </c>
     </row>
@@ -2781,7 +2784,7 @@
       <c r="H56" t="s">
         <v>242</v>
       </c>
-      <c r="I56" s="1" t="s">
+      <c r="I56" s="3" t="s">
         <v>244</v>
       </c>
     </row>
